--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/HAWAII_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/HAWAII_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C17">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -794,7 +794,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C32">
@@ -877,7 +877,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C37">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C48">
@@ -1043,7 +1043,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C49">
@@ -1056,7 +1056,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C50">
@@ -1113,7 +1113,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C54">
@@ -1209,7 +1209,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C61">
@@ -1222,7 +1222,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C62">
@@ -1274,7 +1274,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C66">
@@ -1287,7 +1287,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C67">
@@ -1313,7 +1313,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C69">
@@ -1339,7 +1339,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C71">
@@ -1595,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="D89">
-        <v>0.09659090909090909</v>
+        <v>0.09659090909090907</v>
       </c>
     </row>
     <row r="90">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C90">
@@ -1619,7 +1619,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C91">
@@ -1632,7 +1632,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C92">
@@ -1645,7 +1645,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C93">
@@ -1658,7 +1658,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C94">
@@ -1671,7 +1671,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C95">
@@ -1775,7 +1775,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C103">
@@ -1845,7 +1845,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C108">
@@ -1884,7 +1884,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C111">
@@ -1897,7 +1897,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C112">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C114">
@@ -2060,7 +2060,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C123">
@@ -2208,41 +2208,6 @@
       </c>
       <c r="D133">
         <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/HAWAII_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/HAWAII_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>León</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1459,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1472,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1547,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1560,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1573,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1586,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -1630,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Constancia Del Rosario</t>
@@ -1643,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Fresnillo De Trujano</t>
@@ -1656,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -1669,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1682,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1695,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Juan Teitipac</t>
@@ -1708,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -1721,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Santiago Comaltepec</t>
@@ -1734,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Santiago Tilantongo</t>
@@ -1747,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Santo Domingo Armenta</t>
@@ -1760,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1773,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1786,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1830,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1843,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1882,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -1895,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -1908,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1939,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1952,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1996,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2027,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2058,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2071,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -2084,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2097,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2110,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2141,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2172,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2185,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
